--- a/ig/core/StructureDefinition-medcom-core-media.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-media.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="393">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.4.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T14:13:17+02:00</t>
+    <t>2025-09-24T12:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -481,23 +481,25 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
-    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
+    <t>Identifier(s) for the image</t>
+  </si>
+  <si>
+    <t>Identifiers associated with the image - these may include identifiers for the image itself, identifiers for the context of its collection (e.g. series ids) and context ids such as accession numbers or other workflow identifiers.</t>
   </si>
   <si>
     <t>The identifier label and use can be used to determine what kind of identifier it is.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>0008,0018 | ~0008,0050 | 0020,000D | 0020,000E</t>
   </si>
   <si>
     <t>Media.basedOn</t>
@@ -1163,7 +1165,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
@@ -1566,17 +1568,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.09765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.09765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.50390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.50390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="155.11328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="132.14453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1585,29 +1587,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.59375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="103.01953125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="78.47265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.1484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="30.6015625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="90.94140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.17578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.0546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="137.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="29.19140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="79.7890625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="44.4609375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="37.7109375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="89.109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="41.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="71.63671875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="42.72265625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2871,7 +2873,7 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>148</v>
@@ -2942,25 +2944,25 @@
         <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>153</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>80</v>
@@ -2971,14 +2973,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2997,17 +2999,17 @@
         <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>80</v>
@@ -3056,7 +3058,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3071,10 +3073,10 @@
         <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>80</v>
@@ -3094,14 +3096,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3120,19 +3122,19 @@
         <v>91</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3181,7 +3183,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3196,10 +3198,10 @@
         <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>80</v>
@@ -3219,10 +3221,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3248,13 +3250,13 @@
         <v>110</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3280,13 +3282,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3304,7 +3306,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>90</v>
@@ -3319,19 +3321,19 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>80</v>
@@ -3342,10 +3344,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3368,17 +3370,17 @@
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
@@ -3403,13 +3405,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3427,7 +3429,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3445,10 +3447,10 @@
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>80</v>
@@ -3465,10 +3467,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3491,13 +3493,13 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3524,13 +3526,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3548,7 +3550,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3563,16 +3565,16 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>80</v>
@@ -3586,10 +3588,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3612,13 +3614,13 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3645,13 +3647,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3669,7 +3671,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3687,7 +3689,7 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
@@ -3707,10 +3709,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3733,13 +3735,13 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3790,7 +3792,7 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -3805,16 +3807,16 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>80</v>
@@ -3828,14 +3830,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3854,19 +3856,19 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -3915,7 +3917,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -3930,13 +3932,13 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -3953,14 +3955,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3979,13 +3981,13 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4036,7 +4038,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4051,13 +4053,13 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>80</v>
@@ -4074,10 +4076,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4100,16 +4102,16 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4159,7 +4161,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4177,16 +4179,16 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -4197,10 +4199,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4223,13 +4225,13 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4280,7 +4282,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4292,19 +4294,19 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4318,10 +4320,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4344,16 +4346,16 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4379,13 +4381,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4403,7 +4405,7 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4418,13 +4420,13 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
@@ -4441,10 +4443,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4467,16 +4469,16 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4502,13 +4504,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4526,7 +4528,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4544,7 +4546,7 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4556,18 +4558,18 @@
         <v>80</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4590,13 +4592,13 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4647,7 +4649,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4665,13 +4667,13 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -4685,10 +4687,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4711,16 +4713,16 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4770,7 +4772,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -4788,7 +4790,7 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
@@ -4800,18 +4802,18 @@
         <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4834,13 +4836,13 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4891,7 +4893,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -4909,13 +4911,13 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -4929,10 +4931,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4955,13 +4957,13 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5012,7 +5014,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5030,13 +5032,13 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5050,10 +5052,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5076,16 +5078,16 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5135,7 +5137,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5153,7 +5155,7 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
@@ -5173,10 +5175,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5199,16 +5201,16 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5258,7 +5260,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5276,13 +5278,13 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -5296,10 +5298,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5322,16 +5324,16 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5381,7 +5383,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>90</v>
@@ -5399,7 +5401,7 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5419,10 +5421,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5445,13 +5447,13 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5502,7 +5504,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5520,7 +5522,7 @@
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5540,10 +5542,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5572,7 +5574,7 @@
         <v>137</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>139</v>
@@ -5613,19 +5615,19 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5643,7 +5645,7 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5663,10 +5665,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5692,14 +5694,14 @@
         <v>110</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -5712,7 +5714,7 @@
         <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>80</v>
@@ -5724,11 +5726,11 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5746,7 +5748,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5764,7 +5766,7 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
@@ -5773,7 +5775,7 @@
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
@@ -5784,10 +5786,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5813,14 +5815,14 @@
         <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5833,7 +5835,7 @@
         <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>80</v>
@@ -5869,7 +5871,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -5887,7 +5889,7 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -5907,10 +5909,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5933,19 +5935,19 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -5994,7 +5996,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6012,7 +6014,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6021,7 +6023,7 @@
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -6032,10 +6034,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6058,19 +6060,19 @@
         <v>91</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6083,7 +6085,7 @@
         <v>80</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>80</v>
@@ -6119,7 +6121,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6137,7 +6139,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6146,7 +6148,7 @@
         <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -6157,10 +6159,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6183,19 +6185,19 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
@@ -6244,7 +6246,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6262,7 +6264,7 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6282,10 +6284,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6308,19 +6310,19 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6369,7 +6371,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6387,7 +6389,7 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6407,10 +6409,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6433,17 +6435,17 @@
         <v>91</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -6456,7 +6458,7 @@
         <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>80</v>
@@ -6492,7 +6494,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6510,7 +6512,7 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6530,10 +6532,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6556,17 +6558,17 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6615,7 +6617,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6633,7 +6635,7 @@
         <v>80</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>80</v>
@@ -6653,10 +6655,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6679,16 +6681,16 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6738,7 +6740,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -6753,10 +6755,10 @@
         <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>80</v>
@@ -6765,7 +6767,7 @@
         <v>80</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>80</v>

--- a/ig/core/StructureDefinition-medcom-core-media.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-media.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:42:36+00:00</t>
+    <t>2025-10-29T07:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -373,7 +373,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -509,7 +509,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest|CarePlan)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1|CarePlan|4.0.1)
 </t>
   </si>
   <si>
@@ -535,7 +535,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -616,7 +616,7 @@
     <t>Codes for high level media categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/media-type</t>
+    <t>http://hl7.org/fhir/ValueSet/media-type|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -640,7 +640,7 @@
     <t>Detailed information about the type of the image - its kind, purpose, or the kind of equipment used to generate it.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/media-modality</t>
+    <t>http://hl7.org/fhir/ValueSet/media-modality|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -667,7 +667,7 @@
     <t>Imaging view (projection) used when collecting an image.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/media-view</t>
+    <t>http://hl7.org/fhir/ValueSet/media-view|4.0.1</t>
   </si>
   <si>
     <t>DiagnosticImage.subjectOrientationCode</t>
@@ -676,7 +676,7 @@
     <t>Media.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|Group|Device|Specimen|Location)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|Group|4.0.1|Device|4.0.1|Specimen|4.0.1|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -705,7 +705,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -825,7 +825,7 @@
     <t>The reason for the media.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -853,7 +853,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>targetSiteCode</t>
@@ -887,7 +887,7 @@
     <t>Media.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric|Device)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>

--- a/ig/core/StructureDefinition-medcom-core-media.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-media.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="342">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T07:28:01+00:00</t>
+    <t>2026-01-13T14:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -390,7 +390,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>The narrative text SHALL always be included when exchanging a MedCom FHIR Bundle.</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -403,6 +403,109 @@
   </si>
   <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Media.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Media.text.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Media.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Media.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Limited xhtml content</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>Media.contained</t>
@@ -428,34 +531,13 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Media.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Media.modifierExtension</t>
@@ -477,7 +559,7 @@
     <t>Media.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {http://medcomfhir.dk/ig/core/StructureDefinition/medcom-assigned-identifier}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -573,9 +655,6 @@
 Unknown does not represent "other" - one of the defined statuses must apply.  Unknown is used when the authoring system is not sure what the current status is.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Codes identifying the lifecycle stage of an event.</t>
   </si>
   <si>
@@ -784,7 +863,7 @@
     <t>Media.operator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitioner|http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitionerrole)
+    <t xml:space="preserve">Reference(http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitioner|http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-practitionerrole|http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-organization|http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-careteam|http://medcomfhir.dk/ig/core/StructureDefinition/medcom-core-patient|Device|http://hl7.dk/fhir/core/StructureDefinition/dk-core-related-person)
 </t>
   </si>
   <si>
@@ -792,10 +871,6 @@
   </si>
   <si>
     <t>The person who administered the collection of the image.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-medcom-homecareReport-5:There shall exist a practitioner role when using a PractitionerRole as author of the attached file . {reference.resolve().code.coding.code.exists()}medcom-homecareReport-6:There shall exist a name of the healtcare worker that performed the observations, as author of the attached file . {reference.resolve().practitioner.resolve().name.exists()}</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -868,10 +943,6 @@
     <t>Media.deviceName</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Name of the device/manufacturer</t>
   </si>
   <si>
@@ -988,233 +1059,6 @@
   </si>
   <si>
     <t>.text</t>
-  </si>
-  <si>
-    <t>Media.content.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Media.content.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Media.content.contentType</t>
-  </si>
-  <si>
-    <t>Mime type of the content, with charset etc.</t>
-  </si>
-  <si>
-    <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
-  </si>
-  <si>
-    <t>Processors of the data need to be able to know how to interpret the data.</t>
-  </si>
-  <si>
-    <t>text/plain; charset=UTF-8, image/png</t>
-  </si>
-  <si>
-    <t>http://medcomfhir.dk/ig/terminology/ValueSet/medcom-core-attachmentMimeTypes</t>
-  </si>
-  <si>
-    <t>Attachment.contentType</t>
-  </si>
-  <si>
-    <t>./mediaType, ./charset</t>
-  </si>
-  <si>
-    <t>ED.2+ED.3/RP.2+RP.3. Note conversion may be needed if old style values are being used</t>
-  </si>
-  <si>
-    <t>Media.content.language</t>
-  </si>
-  <si>
-    <t>Human language of the content (BCP-47)</t>
-  </si>
-  <si>
-    <t>The human language of the content. The value can be any valid value according to BCP 47.</t>
-  </si>
-  <si>
-    <t>Users need to be able to choose between the languages in a set of attachments.</t>
-  </si>
-  <si>
-    <t>en-AU</t>
-  </si>
-  <si>
-    <t>Attachment.language</t>
-  </si>
-  <si>
-    <t>./language</t>
-  </si>
-  <si>
-    <t>Media.content.data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base64Binary
-</t>
-  </si>
-  <si>
-    <t>Data inline, base64ed</t>
-  </si>
-  <si>
-    <t>The actual data of the attachment - a sequence of bytes, base64 encoded.</t>
-  </si>
-  <si>
-    <t>The base64-encoded data SHALL be expressed in the same character set as the base resource XML or JSON.</t>
-  </si>
-  <si>
-    <t>The data needs to able to be transmitted inline.</t>
-  </si>
-  <si>
-    <t>Attachment.data</t>
-  </si>
-  <si>
-    <t>./data</t>
-  </si>
-  <si>
-    <t>ED.5</t>
-  </si>
-  <si>
-    <t>Media.content.url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url
-</t>
-  </si>
-  <si>
-    <t>Uri where the data can be found</t>
-  </si>
-  <si>
-    <t>A location where the data can be accessed.</t>
-  </si>
-  <si>
-    <t>If both data and url are provided, the url SHALL point to the same content as the data contains. Urls may be relative references or may reference transient locations such as a wrapping envelope using cid: though this has ramifications for using signatures. Relative URLs are interpreted relative to the service url, like a resource reference, rather than relative to the resource itself. If a URL is provided, it SHALL resolve to actual data.</t>
-  </si>
-  <si>
-    <t>The data needs to be transmitted by reference.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/logo-small.png</t>
-  </si>
-  <si>
-    <t>Attachment.url</t>
-  </si>
-  <si>
-    <t>./reference/literal</t>
-  </si>
-  <si>
-    <t>RP.1+RP.2 - if they refer to a URL (see v2.6)</t>
-  </si>
-  <si>
-    <t>Media.content.size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unsignedInt
-</t>
-  </si>
-  <si>
-    <t>Number of bytes of content (if url provided)</t>
-  </si>
-  <si>
-    <t>The number of bytes of data that make up this attachment (before base64 encoding, if that is done).</t>
-  </si>
-  <si>
-    <t>The number of bytes is redundant if the data is provided as a base64binary, but is useful if the data is provided as a url reference.</t>
-  </si>
-  <si>
-    <t>Representing the size allows applications to determine whether they should fetch the content automatically in advance, or refuse to fetch it at all.</t>
-  </si>
-  <si>
-    <t>Attachment.size</t>
-  </si>
-  <si>
-    <t>N/A (needs data type R3 proposal)</t>
-  </si>
-  <si>
-    <t>Media.content.hash</t>
-  </si>
-  <si>
-    <t>Hash of the data (sha-1, base64ed)</t>
-  </si>
-  <si>
-    <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
-  </si>
-  <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
-  </si>
-  <si>
-    <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
-  </si>
-  <si>
-    <t>Attachment.hash</t>
-  </si>
-  <si>
-    <t>.integrityCheck[parent::ED/integrityCheckAlgorithm="SHA-1"]</t>
-  </si>
-  <si>
-    <t>Media.content.title</t>
-  </si>
-  <si>
-    <t>Label to display in place of the data</t>
-  </si>
-  <si>
-    <t>A label or set of text to display in place of the data.</t>
-  </si>
-  <si>
-    <t>Applications need a label to display to a human user in place of the actual data if the data cannot be rendered or perceived by the viewer.</t>
-  </si>
-  <si>
-    <t>Official Corporate Logo</t>
-  </si>
-  <si>
-    <t>Attachment.title</t>
-  </si>
-  <si>
-    <t>./title/data</t>
-  </si>
-  <si>
-    <t>Media.content.creation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date attachment was first created</t>
-  </si>
-  <si>
-    <t>The date that the attachment was first created.</t>
-  </si>
-  <si>
-    <t>This is often tracked as an integrity issue for use of the attachment.</t>
-  </si>
-  <si>
-    <t>Attachment.creation</t>
   </si>
   <si>
     <t>Media.note</t>
@@ -1559,7 +1403,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ42"/>
+  <dimension ref="A1:AQ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1568,8 +1412,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.50390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.50390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.36328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.36328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -1578,7 +1422,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="132.14453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1587,13 +1431,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="30.6015625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="90.94140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.17578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="40.98046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -1607,7 +1451,7 @@
     <col min="38" max="38" width="89.109375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="41.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="71.63671875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="61.046875" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="42.72265625" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1877,13 +1721,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>80</v>
@@ -2367,13 +2211,13 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>80</v>
@@ -2486,14 +2330,14 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>80</v>
@@ -2505,17 +2349,15 @@
         <v>80</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>131</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>80</v>
@@ -2564,13 +2406,13 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>80</v>
@@ -2582,7 +2424,7 @@
         <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>80</v>
@@ -2602,14 +2444,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2628,16 +2470,16 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2675,19 +2517,19 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -2699,13 +2541,13 @@
         <v>80</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>80</v>
@@ -2725,46 +2567,42 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>145</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
       </c>
@@ -2788,13 +2626,13 @@
         <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>80</v>
@@ -2812,25 +2650,25 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>80</v>
@@ -2850,10 +2688,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2873,19 +2711,19 @@
         <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2935,31 +2773,31 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>80</v>
@@ -2973,14 +2811,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -2996,21 +2834,21 @@
         <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3058,7 +2896,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3070,13 +2908,13 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>80</v>
@@ -3096,14 +2934,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3119,23 +2957,21 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="N13" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3183,7 +3019,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3195,13 +3031,13 @@
         <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>80</v>
@@ -3221,44 +3057,46 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>91</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -3282,13 +3120,13 @@
         <v>80</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>80</v>
@@ -3306,34 +3144,34 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>80</v>
@@ -3344,10 +3182,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3358,7 +3196,7 @@
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -3370,18 +3208,18 @@
         <v>91</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3405,13 +3243,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3429,13 +3267,13 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
@@ -3444,16 +3282,16 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>80</v>
@@ -3467,21 +3305,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>80</v>
@@ -3493,16 +3331,18 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>195</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3526,13 +3366,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>198</v>
+        <v>80</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>199</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3550,13 +3390,13 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
@@ -3565,16 +3405,16 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>80</v>
@@ -3588,21 +3428,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -3614,16 +3454,20 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3647,13 +3491,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3671,13 +3515,13 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
@@ -3686,10 +3530,10 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
@@ -3709,10 +3553,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3720,30 +3564,32 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>211</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3768,13 +3614,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -3792,10 +3638,10 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>90</v>
@@ -3807,19 +3653,19 @@
         <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>80</v>
@@ -3830,14 +3676,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3856,19 +3702,17 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -3893,13 +3737,13 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
@@ -3917,7 +3761,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -3932,13 +3776,13 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>80</v>
@@ -3955,14 +3799,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3981,13 +3825,13 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4014,13 +3858,13 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4038,7 +3882,7 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4053,16 +3897,16 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4076,10 +3920,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4102,17 +3946,15 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4137,13 +3979,13 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
@@ -4161,7 +4003,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4179,16 +4021,16 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -4199,10 +4041,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4216,7 +4058,7 @@
         <v>90</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
@@ -4225,13 +4067,13 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4282,7 +4124,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4294,19 +4136,19 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>248</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -4320,21 +4162,21 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>244</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4346,18 +4188,20 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4381,13 +4225,13 @@
         <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>80</v>
@@ -4405,13 +4249,13 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
@@ -4420,13 +4264,13 @@
         <v>102</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>80</v>
@@ -4443,14 +4287,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4469,17 +4313,15 @@
         <v>91</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -4504,13 +4346,13 @@
         <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>266</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>267</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>80</v>
@@ -4528,7 +4370,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4543,13 +4385,13 @@
         <v>102</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>258</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>80</v>
@@ -4558,18 +4400,18 @@
         <v>80</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>270</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4592,15 +4434,17 @@
         <v>91</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4649,7 +4493,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4667,16 +4511,16 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>276</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>80</v>
+        <v>268</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>80</v>
@@ -4687,10 +4531,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4713,17 +4557,15 @@
         <v>91</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4772,7 +4614,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -4787,33 +4629,33 @@
         <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>283</v>
+        <v>80</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>284</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4824,7 +4666,7 @@
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4836,15 +4678,17 @@
         <v>91</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -4869,13 +4713,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>282</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -4893,13 +4737,13 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
@@ -4908,16 +4752,16 @@
         <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -4931,10 +4775,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4957,15 +4801,17 @@
         <v>91</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -4990,13 +4836,13 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
@@ -5014,7 +4860,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5032,22 +4878,22 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AQ28" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ28" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -5078,7 +4924,7 @@
         <v>91</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>286</v>
+        <v>127</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>296</v>
@@ -5086,9 +4932,7 @@
       <c r="M29" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5155,13 +4999,13 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5175,10 +5019,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5201,16 +5045,16 @@
         <v>91</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5260,7 +5104,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5278,30 +5122,30 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5309,7 +5153,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>90</v>
@@ -5324,17 +5168,15 @@
         <v>91</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5383,10 +5225,10 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>90</v>
@@ -5401,13 +5243,13 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -5421,10 +5263,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5444,16 +5286,16 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5516,19 +5358,19 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -5542,21 +5384,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5565,19 +5407,19 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>136</v>
+        <v>309</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>137</v>
+        <v>319</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>139</v>
+        <v>321</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5615,37 +5457,37 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AC33" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>321</v>
-      </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>80</v>
@@ -5682,7 +5524,7 @@
         <v>90</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
@@ -5691,18 +5533,18 @@
         <v>91</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>110</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
         <v>325</v>
       </c>
+      <c r="N34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5714,7 +5556,7 @@
         <v>80</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="U34" t="s" s="2">
         <v>80</v>
@@ -5726,11 +5568,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>327</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5748,7 +5592,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5766,16 +5610,16 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
@@ -5786,10 +5630,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5797,13 +5641,13 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>90</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>80</v>
@@ -5812,18 +5656,18 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>110</v>
+        <v>329</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>334</v>
-      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -5835,7 +5679,7 @@
         <v>80</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="U35" t="s" s="2">
         <v>80</v>
@@ -5847,13 +5691,13 @@
         <v>80</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>80</v>
@@ -5871,10 +5715,10 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>90</v>
@@ -5889,7 +5733,7 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -5909,10 +5753,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5923,10 +5767,10 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>80</v>
@@ -5935,20 +5779,18 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5996,13 +5838,13 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -6011,10 +5853,10 @@
         <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6023,761 +5865,17 @@
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="P37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" hidden="true">
-      <c r="A38" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="P38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ38" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="P39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ39" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ40" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ41" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="O42" s="2"/>
-      <c r="P42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q42" s="2"/>
-      <c r="R42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ42" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ42">
+  <autoFilter ref="A1:AQ36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6787,7 +5885,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI41">
+  <conditionalFormatting sqref="A2:AI35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
